--- a/biology/Médecine/1291_en_santé_et_médecine/1291_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1291_en_santé_et_médecine/1291_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1291_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1291_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1291 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1291_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1291_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les « hôpitaux » de Solignac et de Lastours en Limousin, désignés sous ce terme depuis 1195, seront mentionnés comme « léproseries » en 1354[1].
-À Lille, en Flandre, Jehan du Solier fonde l'hôpital de la Trinité qu'il destine à l'hébergement de cinq « pauvres honteux[2] » ainsi qu'à de pauvres passants, établissement qui recevra jusqu'à vingt-cinq malades, mais dont la capacité sera réduite en 1421 à seize lits, réservés « aux femmes gisant d'enfants et aux pauvres malades femmes[3] ».
-Fondation à Venise par Bartolomeo Querini (it), évêque de Castello, d'un hôpital à côté duquel sera construit en 1296 un oratoire placé sous l'invocation de saint Barthélemy[4].
-Après la prise de Saint-Jean d'Acre par les mamelouks, les Hospitaliers transportent leur siège et leur hôpital à Némosie, dans l'île de Chypre où ils sont d'ailleurs présents depuis 1210[5],[6].
-Première mention de médecins universitaires à Wurtzbourg en Bavière[7].
-Épidémie de « peste » à Valenciennes, en Hainaut[8].
-Avant 1291 : fondation à Choseley (en), près de Docking, entre Fakenham et King's Lynn dans le comté de Norfolk, d'une léproserie qui ne sera fermée qu'en 1428[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les « hôpitaux » de Solignac et de Lastours en Limousin, désignés sous ce terme depuis 1195, seront mentionnés comme « léproseries » en 1354.
+À Lille, en Flandre, Jehan du Solier fonde l'hôpital de la Trinité qu'il destine à l'hébergement de cinq « pauvres honteux » ainsi qu'à de pauvres passants, établissement qui recevra jusqu'à vingt-cinq malades, mais dont la capacité sera réduite en 1421 à seize lits, réservés « aux femmes gisant d'enfants et aux pauvres malades femmes ».
+Fondation à Venise par Bartolomeo Querini (it), évêque de Castello, d'un hôpital à côté duquel sera construit en 1296 un oratoire placé sous l'invocation de saint Barthélemy.
+Après la prise de Saint-Jean d'Acre par les mamelouks, les Hospitaliers transportent leur siège et leur hôpital à Némosie, dans l'île de Chypre où ils sont d'ailleurs présents depuis 1210,.
+Première mention de médecins universitaires à Wurtzbourg en Bavière.
+Épidémie de « peste » à Valenciennes, en Hainaut.
+Avant 1291 : fondation à Choseley (en), près de Docking, entre Fakenham et King's Lynn dans le comté de Norfolk, d'une léproserie qui ne sera fermée qu'en 1428.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1291_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1291_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin, philosophe et talmudiste italien Hillel ben Samuel (en) achève le « Traité sur l'âme » (Sefer Tagmolé ha-Nefesch), son principal ouvrage[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin, philosophe et talmudiste italien Hillel ben Samuel (en) achève le « Traité sur l'âme » (Sefer Tagmolé ha-Nefesch), son principal ouvrage.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1291_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1291_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Théophanie, barbière à Angers, capitale du comté d'Anjou[11].
-Fl. Michel, barbier, au service d'Hélie III Rudel, seigneur de Pons, en Saintonge[11].
-1291-1327 : fl. Jean Amell, médecin, originaire de Toulouse, au service de Jacques II, roi d'Aragon[12].
-1291-1345 : fl. Jean de Lyons, médecin de Philippe le Bel, puis de Jeanne, comtesse de Bourgogne, femme de Philippe le Long[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Théophanie, barbière à Angers, capitale du comté d'Anjou.
+Fl. Michel, barbier, au service d'Hélie III Rudel, seigneur de Pons, en Saintonge.
+1291-1327 : fl. Jean Amell, médecin, originaire de Toulouse, au service de Jacques II, roi d'Aragon.
+1291-1345 : fl. Jean de Lyons, médecin de Philippe le Bel, puis de Jeanne, comtesse de Bourgogne, femme de Philippe le Long.</t>
         </is>
       </c>
     </row>
